--- a/models/calculation engines/economic_overlay/outputs/CBIX_BX_AA_production_cost.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/CBIX_BX_AA_production_cost.xlsx
@@ -533,10 +533,10 @@
         <v>1085.185185185185</v>
       </c>
       <c r="F3" t="n">
-        <v>515.3674944444444</v>
+        <v>515.3679148061111</v>
       </c>
       <c r="G3" t="n">
-        <v>407.2192635739547</v>
+        <v>407.2193467859372</v>
       </c>
       <c r="H3" t="n">
         <v>9.359999999999999</v>
@@ -548,7 +548,7 @@
         <v>305</v>
       </c>
       <c r="K3" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="4">
@@ -563,7 +563,7 @@
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
       <c r="K4" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="5">
@@ -578,7 +578,7 @@
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
       <c r="K5" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="6">
@@ -593,7 +593,7 @@
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
       <c r="K6" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="7">
@@ -608,7 +608,7 @@
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
       <c r="K7" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="8">
@@ -623,7 +623,7 @@
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
       <c r="K8" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="9">
@@ -638,7 +638,7 @@
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
       <c r="K9" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="10">
@@ -653,7 +653,7 @@
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
       <c r="K10" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="11">
@@ -668,7 +668,7 @@
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
       <c r="K11" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="12">
@@ -683,7 +683,7 @@
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
       <c r="K12" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="13">
@@ -698,7 +698,7 @@
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="14">
@@ -713,7 +713,7 @@
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="15">
@@ -728,7 +728,7 @@
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="16">
@@ -743,7 +743,7 @@
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
       <c r="K16" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="17">
@@ -758,7 +758,7 @@
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
       <c r="K17" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="18">
@@ -773,7 +773,7 @@
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
       <c r="K18" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="19">
@@ -788,7 +788,7 @@
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
       <c r="K19" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="20">
@@ -803,7 +803,7 @@
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
       <c r="K20" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="21">
@@ -818,7 +818,7 @@
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
       <c r="K21" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="22">
@@ -833,7 +833,7 @@
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
       <c r="K22" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="23">
@@ -848,7 +848,7 @@
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
       <c r="K23" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="24">
@@ -863,7 +863,7 @@
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
       <c r="K24" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
       <c r="K25" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="26">
@@ -893,7 +893,7 @@
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
       <c r="K26" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="27">
@@ -908,7 +908,7 @@
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
       <c r="K27" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="28">
@@ -923,7 +923,7 @@
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
       <c r="K28" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="29">
@@ -938,7 +938,7 @@
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
       <c r="K29" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="30">
@@ -953,7 +953,7 @@
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
       <c r="K30" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="31">
@@ -968,7 +968,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
       <c r="K31" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="32">
@@ -983,7 +983,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
       <c r="K32" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="33">
@@ -998,7 +998,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
       <c r="K33" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="34">
@@ -1013,7 +1013,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
       <c r="K34" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="35">
@@ -1028,7 +1028,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
       <c r="K35" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="36">
@@ -1043,7 +1043,7 @@
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="37">
@@ -1058,7 +1058,7 @@
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="38">
@@ -1073,7 +1073,7 @@
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
       <c r="K38" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="39">
@@ -1088,7 +1088,7 @@
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
       <c r="K39" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="40">
@@ -1103,7 +1103,7 @@
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="41">
@@ -1118,7 +1118,7 @@
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="42">
@@ -1133,7 +1133,7 @@
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
       <c r="K42" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="43">
@@ -1148,7 +1148,7 @@
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
       <c r="K43" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="44">
@@ -1163,7 +1163,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
       <c r="K44" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="45">
@@ -1178,7 +1178,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
       <c r="K45" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="46">
@@ -1193,7 +1193,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
       <c r="K46" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="47">
@@ -1208,7 +1208,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="48">
@@ -1223,7 +1223,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="49">
@@ -1238,7 +1238,7 @@
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
       <c r="K49" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="50">
@@ -1253,7 +1253,7 @@
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
       <c r="K50" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="51">
@@ -1268,7 +1268,7 @@
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="52">
@@ -1283,7 +1283,7 @@
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
       <c r="K52" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="53">
@@ -1298,7 +1298,7 @@
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="54">
@@ -1313,7 +1313,7 @@
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
       <c r="K54" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="55">
@@ -1328,7 +1328,7 @@
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
       <c r="K55" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="56">
@@ -1343,7 +1343,7 @@
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
       <c r="K56" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="57">
@@ -1358,7 +1358,7 @@
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
       <c r="K57" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="58">
@@ -1373,7 +1373,7 @@
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="59">
@@ -1388,7 +1388,7 @@
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="60">
@@ -1403,7 +1403,7 @@
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
       <c r="K60" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="61">
@@ -1418,7 +1418,7 @@
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
       <c r="K61" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="62">
@@ -1433,7 +1433,7 @@
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
       <c r="K62" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="63">
@@ -1448,7 +1448,7 @@
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
       <c r="K63" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="64">
@@ -1463,7 +1463,7 @@
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
       <c r="K64" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="65">
@@ -1478,7 +1478,7 @@
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="66">
@@ -1493,7 +1493,7 @@
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
       <c r="K66" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="67">
@@ -1508,7 +1508,7 @@
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="68">
@@ -1523,7 +1523,7 @@
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
       <c r="K68" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="69">
@@ -1538,7 +1538,7 @@
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
       <c r="K69" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="70">
@@ -1553,7 +1553,7 @@
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="71">
@@ -1568,7 +1568,7 @@
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
       <c r="K71" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="72">
@@ -1583,7 +1583,7 @@
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
       <c r="K72" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="73">
@@ -1598,7 +1598,7 @@
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
       <c r="K73" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="74">
@@ -1613,7 +1613,7 @@
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
       <c r="K74" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="75">
@@ -1628,7 +1628,7 @@
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
       <c r="K75" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="76">
@@ -1643,7 +1643,7 @@
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
       <c r="K76" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="77">
@@ -1658,7 +1658,7 @@
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
       <c r="K77" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="78">
@@ -1673,7 +1673,7 @@
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="79">
@@ -1688,7 +1688,7 @@
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="80">
@@ -1703,7 +1703,7 @@
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="81">
@@ -1718,7 +1718,7 @@
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="82">
@@ -1733,7 +1733,7 @@
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="83">
@@ -1748,7 +1748,7 @@
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
       <c r="K83" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="84">
@@ -1763,7 +1763,7 @@
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
       <c r="K84" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="85">
@@ -1778,7 +1778,7 @@
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
       <c r="K85" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="86">
@@ -1793,7 +1793,7 @@
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
       <c r="K86" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="87">
@@ -1808,7 +1808,7 @@
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
       <c r="K87" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="88">
@@ -1823,7 +1823,7 @@
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
       <c r="K88" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="89">
@@ -1838,7 +1838,7 @@
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
       <c r="K89" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="90">
@@ -1853,7 +1853,7 @@
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
       <c r="K90" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="91">
@@ -1868,7 +1868,7 @@
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="92">
@@ -1883,7 +1883,7 @@
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
       <c r="K92" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="93">
@@ -1898,7 +1898,7 @@
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
       <c r="K93" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="94">
@@ -1913,7 +1913,7 @@
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
       <c r="K94" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="95">
@@ -1928,7 +1928,7 @@
       <c r="I95" t="inlineStr"/>
       <c r="J95" t="inlineStr"/>
       <c r="K95" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="96">
@@ -1943,7 +1943,7 @@
       <c r="I96" t="inlineStr"/>
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="97">
@@ -1958,7 +1958,7 @@
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="98">
@@ -1973,7 +1973,7 @@
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="99">
@@ -1988,7 +1988,7 @@
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="100">
@@ -2003,7 +2003,7 @@
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="101">
@@ -2018,7 +2018,7 @@
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
       <c r="K101" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="102">
@@ -2033,7 +2033,7 @@
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
       <c r="K102" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="103">
@@ -2048,7 +2048,7 @@
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
       <c r="K103" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="104">
@@ -2063,7 +2063,7 @@
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
       <c r="K104" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="105">
@@ -2078,7 +2078,7 @@
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
       <c r="K105" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="106">
@@ -2093,7 +2093,7 @@
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
       <c r="K106" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="107">
@@ -2108,7 +2108,7 @@
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
       <c r="K107" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="108">
@@ -2123,7 +2123,7 @@
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
       <c r="K108" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="109">
@@ -2138,7 +2138,7 @@
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
       <c r="K109" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="110">
@@ -2153,7 +2153,7 @@
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
       <c r="K110" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="111">
@@ -2168,7 +2168,7 @@
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="112">
@@ -2183,7 +2183,7 @@
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="113">
@@ -2198,7 +2198,7 @@
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
       <c r="K113" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="114">
@@ -2213,7 +2213,7 @@
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
       <c r="K114" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="115">
@@ -2228,7 +2228,7 @@
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
       <c r="K115" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="116">
@@ -2243,7 +2243,7 @@
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
       <c r="K116" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="117">
@@ -2258,7 +2258,7 @@
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
       <c r="K117" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="118">
@@ -2273,7 +2273,7 @@
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
       <c r="K118" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="119">
@@ -2288,7 +2288,7 @@
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
       <c r="K119" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="120">
@@ -2303,7 +2303,7 @@
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="121">
@@ -2318,7 +2318,7 @@
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="122">
@@ -2333,7 +2333,7 @@
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
       <c r="K122" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="123">
@@ -2348,7 +2348,7 @@
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
       <c r="K123" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="124">
@@ -2363,7 +2363,7 @@
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
       <c r="K124" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="125">
@@ -2378,7 +2378,7 @@
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
       <c r="K125" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="126">
@@ -2393,7 +2393,7 @@
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
       <c r="K126" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="127">
@@ -2408,7 +2408,7 @@
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
       <c r="K127" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="128">
@@ -2423,7 +2423,7 @@
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="129">
@@ -2438,7 +2438,7 @@
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="130">
@@ -2453,7 +2453,7 @@
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
       <c r="K130" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="131">
@@ -2468,7 +2468,7 @@
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
       <c r="K131" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="132">
@@ -2483,7 +2483,7 @@
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
       <c r="K132" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="133">
@@ -2498,7 +2498,7 @@
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="134">
@@ -2513,7 +2513,7 @@
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
       <c r="K134" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="135">
@@ -2528,7 +2528,7 @@
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
       <c r="K135" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="136">
@@ -2543,7 +2543,7 @@
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
       <c r="K136" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="137">
@@ -2558,7 +2558,7 @@
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
       <c r="K137" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="138">
@@ -2573,7 +2573,7 @@
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
       <c r="K138" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="139">
@@ -2588,7 +2588,7 @@
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
       <c r="K139" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="140">
@@ -2603,7 +2603,7 @@
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
       <c r="K140" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="141">
@@ -2618,7 +2618,7 @@
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="142">
@@ -2633,7 +2633,7 @@
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="143">
@@ -2648,7 +2648,7 @@
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
       <c r="K143" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="144">
@@ -2663,7 +2663,7 @@
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
       <c r="K144" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="145">
@@ -2678,7 +2678,7 @@
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
       <c r="K145" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="146">
@@ -2693,7 +2693,7 @@
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
       <c r="K146" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="147">
@@ -2708,7 +2708,7 @@
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
       <c r="K147" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="148">
@@ -2723,7 +2723,7 @@
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
       <c r="K148" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="149">
@@ -2738,7 +2738,7 @@
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
       <c r="K149" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="150">
@@ -2753,7 +2753,7 @@
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
       <c r="K150" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="151">
@@ -2768,7 +2768,7 @@
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
       <c r="K151" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="152">
@@ -2783,7 +2783,7 @@
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
       <c r="K152" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="153">
@@ -2798,7 +2798,7 @@
       <c r="I153" t="inlineStr"/>
       <c r="J153" t="inlineStr"/>
       <c r="K153" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="154">
@@ -2813,7 +2813,7 @@
       <c r="I154" t="inlineStr"/>
       <c r="J154" t="inlineStr"/>
       <c r="K154" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="155">
@@ -2828,7 +2828,7 @@
       <c r="I155" t="inlineStr"/>
       <c r="J155" t="inlineStr"/>
       <c r="K155" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="156">
@@ -2843,7 +2843,7 @@
       <c r="I156" t="inlineStr"/>
       <c r="J156" t="inlineStr"/>
       <c r="K156" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="157">
@@ -2858,7 +2858,7 @@
       <c r="I157" t="inlineStr"/>
       <c r="J157" t="inlineStr"/>
       <c r="K157" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="158">
@@ -2873,7 +2873,7 @@
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
       <c r="K158" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="159">
@@ -2888,7 +2888,7 @@
       <c r="I159" t="inlineStr"/>
       <c r="J159" t="inlineStr"/>
       <c r="K159" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="160">
@@ -2903,7 +2903,7 @@
       <c r="I160" t="inlineStr"/>
       <c r="J160" t="inlineStr"/>
       <c r="K160" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="161">
@@ -2918,7 +2918,7 @@
       <c r="I161" t="inlineStr"/>
       <c r="J161" t="inlineStr"/>
       <c r="K161" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="162">
@@ -2933,7 +2933,7 @@
       <c r="I162" t="inlineStr"/>
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="163">
@@ -2948,7 +2948,7 @@
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
     <row r="164">
@@ -2963,7 +2963,7 @@
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
       <c r="K164" t="n">
-        <v>2358.45937530235</v>
+        <v>2358.459878875999</v>
       </c>
     </row>
   </sheetData>

--- a/models/calculation engines/economic_overlay/outputs/CBIX_BX_AA_production_cost.xlsx
+++ b/models/calculation engines/economic_overlay/outputs/CBIX_BX_AA_production_cost.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K164"/>
+  <dimension ref="A1:M177"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -490,6 +490,16 @@
           <t>Total Cost - CBIX BX</t>
         </is>
       </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>province</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>county</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -515,6 +525,8 @@
         </is>
       </c>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -549,6 +561,16 @@
       </c>
       <c r="K3" t="n">
         <v>2358.459878875999</v>
+      </c>
+      <c r="L3" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M3" t="inlineStr">
+        <is>
+          <t>Baode</t>
+        </is>
       </c>
     </row>
     <row r="4">
@@ -565,6 +587,16 @@
       <c r="K4" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M4" t="inlineStr">
+        <is>
+          <t>Baofeng</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr"/>
@@ -580,6 +612,16 @@
       <c r="K5" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Binyang</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr"/>
@@ -595,6 +637,16 @@
       <c r="K6" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
+      </c>
+      <c r="M6" t="inlineStr">
+        <is>
+          <t>CBG</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr"/>
@@ -610,6 +662,16 @@
       <c r="K7" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Chencheng</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr"/>
@@ -625,6 +687,16 @@
       <c r="K8" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Chengong</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr"/>
@@ -640,6 +712,16 @@
       <c r="K9" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Chenxi</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr"/>
@@ -655,6 +737,16 @@
       <c r="K10" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Fly Ash</t>
+        </is>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>China</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr"/>
@@ -670,6 +762,12 @@
       <c r="K11" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>China Total</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr"/>
@@ -685,6 +783,16 @@
       <c r="K12" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L12" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>Chongzuo</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr"/>
@@ -700,6 +808,16 @@
       <c r="K13" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L13" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M13" t="inlineStr">
+        <is>
+          <t>Daozhen</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr"/>
@@ -715,6 +833,16 @@
       <c r="K14" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M14" t="inlineStr">
+        <is>
+          <t>Debao</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr"/>
@@ -730,6 +858,16 @@
       <c r="K15" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
+          <t>Dengfeng</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr"/>
@@ -745,6 +883,16 @@
       <c r="K16" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M16" t="inlineStr">
+        <is>
+          <t>Donglan</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr"/>
@@ -760,6 +908,16 @@
       <c r="K17" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Fangshan</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr"/>
@@ -775,6 +933,16 @@
       <c r="K18" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Fengdu</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr"/>
@@ -790,6 +958,16 @@
       <c r="K19" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Fengfeng</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr"/>
@@ -805,6 +983,16 @@
       <c r="K20" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Fenxi</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr"/>
@@ -820,6 +1008,16 @@
       <c r="K21" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Fenyang</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr"/>
@@ -835,6 +1033,16 @@
       <c r="K22" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>Fiji</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Fiji</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr"/>
@@ -850,6 +1058,16 @@
       <c r="K23" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Fugu</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr"/>
@@ -865,6 +1083,16 @@
       <c r="K24" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Fumin</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr"/>
@@ -880,6 +1108,16 @@
       <c r="K25" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Fuquan</t>
+        </is>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr"/>
@@ -895,6 +1133,16 @@
       <c r="K26" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Ghana</t>
+        </is>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr"/>
@@ -910,6 +1158,16 @@
       <c r="K27" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Gongyi</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr"/>
@@ -925,6 +1183,16 @@
       <c r="K28" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>Gove</t>
+        </is>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr"/>
@@ -940,6 +1208,16 @@
       <c r="K29" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>Gu</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr"/>
@@ -955,6 +1233,16 @@
       <c r="K30" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>Guangnan</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr"/>
@@ -970,6 +1258,16 @@
       <c r="K31" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>Guangyuan</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr"/>
@@ -985,6 +1283,16 @@
       <c r="K32" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Gudu</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr"/>
@@ -1000,6 +1308,16 @@
       <c r="K33" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Guigang</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr"/>
@@ -1015,6 +1333,16 @@
       <c r="K34" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Guiyang</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr"/>
@@ -1030,6 +1358,16 @@
       <c r="K35" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>India</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Gujarat</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr"/>
@@ -1045,6 +1383,16 @@
       <c r="K36" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Gujiao</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr"/>
@@ -1060,6 +1408,16 @@
       <c r="K37" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>Guyana</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr"/>
@@ -1075,6 +1433,16 @@
       <c r="K38" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Hancheng</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr"/>
@@ -1090,6 +1458,16 @@
       <c r="K39" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Heng</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr"/>
@@ -1105,6 +1483,16 @@
       <c r="K40" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Heqing</t>
+        </is>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr"/>
@@ -1120,6 +1508,16 @@
       <c r="K41" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Hequ</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr"/>
@@ -1135,6 +1533,16 @@
       <c r="K42" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Heshun</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr"/>
@@ -1150,6 +1558,16 @@
       <c r="K43" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Hongta</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr"/>
@@ -1165,6 +1583,16 @@
       <c r="K44" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Huairen</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr"/>
@@ -1180,6 +1608,16 @@
       <c r="K45" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Huangping</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr"/>
@@ -1195,6 +1633,16 @@
       <c r="K46" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Hubin</t>
+        </is>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr"/>
@@ -1210,6 +1658,16 @@
       <c r="K47" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Huozhou</t>
+        </is>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr"/>
@@ -1225,6 +1683,16 @@
       <c r="K48" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Jiaokou</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr"/>
@@ -1240,6 +1708,16 @@
       <c r="K49" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Jiaxian</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr"/>
@@ -1255,6 +1733,16 @@
       <c r="K50" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Jiexiu</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr"/>
@@ -1270,6 +1758,16 @@
       <c r="K51" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Jincheng</t>
+        </is>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr"/>
@@ -1285,6 +1783,16 @@
       <c r="K52" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Jingle</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr"/>
@@ -1300,6 +1808,16 @@
       <c r="K53" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Jingxi</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr"/>
@@ -1315,6 +1833,16 @@
       <c r="K54" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr">
+        <is>
+          <t>Jingxing</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr"/>
@@ -1330,6 +1858,16 @@
       <c r="K55" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L55" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M55" t="inlineStr">
+        <is>
+          <t>Jinnin</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr"/>
@@ -1345,6 +1883,16 @@
       <c r="K56" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L56" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M56" t="inlineStr">
+        <is>
+          <t>Jinsha</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr"/>
@@ -1360,6 +1908,16 @@
       <c r="K57" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M57" t="inlineStr">
+        <is>
+          <t>Jiyuan</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr"/>
@@ -1375,6 +1933,16 @@
       <c r="K58" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L58" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M58" t="inlineStr">
+        <is>
+          <t>Kaili</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr"/>
@@ -1390,6 +1958,16 @@
       <c r="K59" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M59" t="inlineStr">
+        <is>
+          <t>Kaiyang</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr"/>
@@ -1405,6 +1983,16 @@
       <c r="K60" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L60" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M60" t="inlineStr">
+        <is>
+          <t>Laibin</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr"/>
@@ -1420,6 +2008,16 @@
       <c r="K61" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L61" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M61" t="inlineStr">
+        <is>
+          <t>Lin</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr"/>
@@ -1435,6 +2033,16 @@
       <c r="K62" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L62" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M62" t="inlineStr">
+        <is>
+          <t>Lingshi</t>
+        </is>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr"/>
@@ -1450,6 +2058,16 @@
       <c r="K63" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L63" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M63" t="inlineStr">
+        <is>
+          <t>Lingyun</t>
+        </is>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr"/>
@@ -1465,6 +2083,16 @@
       <c r="K64" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L64" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M64" t="inlineStr">
+        <is>
+          <t>Liulin</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr"/>
@@ -1480,6 +2108,16 @@
       <c r="K65" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L65" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>Long'an</t>
+        </is>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr"/>
@@ -1495,6 +2133,16 @@
       <c r="K66" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L66" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M66" t="inlineStr">
+        <is>
+          <t>Longli</t>
+        </is>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr"/>
@@ -1510,6 +2158,16 @@
       <c r="K67" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L67" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>Longzhou</t>
+        </is>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr"/>
@@ -1525,6 +2183,16 @@
       <c r="K68" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L68" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M68" t="inlineStr">
+        <is>
+          <t>Loufan</t>
+        </is>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr"/>
@@ -1540,6 +2208,16 @@
       <c r="K69" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L69" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M69" t="inlineStr">
+        <is>
+          <t>Ludian</t>
+        </is>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr"/>
@@ -1555,6 +2233,16 @@
       <c r="K70" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L70" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M70" t="inlineStr">
+        <is>
+          <t>Lushan</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr"/>
@@ -1570,6 +2258,16 @@
       <c r="K71" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L71" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="M71" t="inlineStr">
+        <is>
+          <t>Lushan</t>
+        </is>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr"/>
@@ -1585,6 +2283,16 @@
       <c r="K72" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L72" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M72" t="inlineStr">
+        <is>
+          <t>Lvliang</t>
+        </is>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr"/>
@@ -1600,6 +2308,16 @@
       <c r="K73" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L73" t="inlineStr">
+        <is>
+          <t>Brazil</t>
+        </is>
+      </c>
+      <c r="M73" t="inlineStr">
+        <is>
+          <t>MRN</t>
+        </is>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr"/>
@@ -1615,6 +2333,16 @@
       <c r="K74" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L74" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>Malaysia</t>
+        </is>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr"/>
@@ -1630,6 +2358,16 @@
       <c r="K75" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L75" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>Malipo</t>
+        </is>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr"/>
@@ -1645,6 +2383,16 @@
       <c r="K76" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L76" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M76" t="inlineStr">
+        <is>
+          <t>Mashan</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr"/>
@@ -1660,6 +2408,16 @@
       <c r="K77" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L77" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>Mianchi</t>
+        </is>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr"/>
@@ -1675,6 +2433,16 @@
       <c r="K78" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L78" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="M78" t="inlineStr">
+        <is>
+          <t>Miyi</t>
+        </is>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr"/>
@@ -1690,6 +2458,16 @@
       <c r="K79" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="M79" t="inlineStr">
+        <is>
+          <t>Nanchuan</t>
+        </is>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr"/>
@@ -1705,6 +2483,16 @@
       <c r="K80" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L80" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M80" t="inlineStr">
+        <is>
+          <t>Napo</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr"/>
@@ -1720,6 +2508,16 @@
       <c r="K81" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L81" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M81" t="inlineStr">
+        <is>
+          <t>Ningming</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr"/>
@@ -1735,6 +2533,16 @@
       <c r="K82" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L82" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M82" t="inlineStr">
+        <is>
+          <t>Ningwu</t>
+        </is>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr"/>
@@ -1750,6 +2558,16 @@
       <c r="K83" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L83" t="inlineStr">
+        <is>
+          <t>Beijing</t>
+        </is>
+      </c>
+      <c r="M83" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr"/>
@@ -1765,6 +2583,16 @@
       <c r="K84" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L84" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="M84" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
@@ -1780,6 +2608,16 @@
       <c r="K85" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L85" t="inlineStr">
+        <is>
+          <t>Fujian</t>
+        </is>
+      </c>
+      <c r="M85" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr"/>
@@ -1795,6 +2633,16 @@
       <c r="K86" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>Guangdong</t>
+        </is>
+      </c>
+      <c r="M86" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr"/>
@@ -1810,6 +2658,16 @@
       <c r="K87" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr"/>
@@ -1825,6 +2683,16 @@
       <c r="K88" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr"/>
@@ -1840,6 +2708,16 @@
       <c r="K89" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
@@ -1855,6 +2733,16 @@
       <c r="K90" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr"/>
@@ -1870,6 +2758,16 @@
       <c r="K91" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L91" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr"/>
@@ -1885,6 +2783,16 @@
       <c r="K92" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L92" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr"/>
@@ -1900,6 +2808,16 @@
       <c r="K93" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L93" t="inlineStr">
+        <is>
+          <t>Hunan</t>
+        </is>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr"/>
@@ -1915,6 +2833,16 @@
       <c r="K94" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr"/>
@@ -1930,6 +2858,16 @@
       <c r="K95" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Jiangxi</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr"/>
@@ -1945,6 +2883,16 @@
       <c r="K96" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Liaoning</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr"/>
@@ -1960,6 +2908,16 @@
       <c r="K97" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr"/>
@@ -1975,6 +2933,16 @@
       <c r="K98" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr"/>
@@ -1990,6 +2958,16 @@
       <c r="K99" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr"/>
@@ -2005,6 +2983,16 @@
       <c r="K100" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr"/>
@@ -2020,6 +3008,16 @@
       <c r="K101" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Xinjiang</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
@@ -2035,6 +3033,16 @@
       <c r="K102" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>Not Applicable</t>
+        </is>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr"/>
@@ -2050,6 +3058,16 @@
       <c r="K103" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>Pingdingshan</t>
+        </is>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr"/>
@@ -2065,6 +3083,16 @@
       <c r="K104" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>Pingguo</t>
+        </is>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr"/>
@@ -2080,6 +3108,16 @@
       <c r="K105" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>Pinglu</t>
+        </is>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr"/>
@@ -2095,6 +3133,16 @@
       <c r="K106" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>Pingxiang</t>
+        </is>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr"/>
@@ -2110,6 +3158,16 @@
       <c r="K107" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>Pucheng</t>
+        </is>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr"/>
@@ -2125,6 +3183,16 @@
       <c r="K108" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Inner Mongolia</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>Qingshuihe</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
@@ -2140,6 +3208,16 @@
       <c r="K109" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>Qingzhen</t>
+        </is>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr"/>
@@ -2155,6 +3233,16 @@
       <c r="K110" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>Qinjiang</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr"/>
@@ -2170,6 +3258,16 @@
       <c r="K111" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>Qinyang</t>
+        </is>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr"/>
@@ -2185,6 +3283,16 @@
       <c r="K112" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>Qinyuan</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr"/>
@@ -2200,6 +3308,16 @@
       <c r="K113" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Australia</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>Queensland</t>
+        </is>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr"/>
@@ -2215,6 +3333,16 @@
       <c r="K114" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>Ruyang</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr"/>
@@ -2230,6 +3358,16 @@
       <c r="K115" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L115" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>Ruzhou</t>
+        </is>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr"/>
@@ -2245,6 +3383,16 @@
       <c r="K116" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L116" t="inlineStr">
+        <is>
+          <t>Guinea</t>
+        </is>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>SMB</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr"/>
@@ -2260,6 +3408,16 @@
       <c r="K117" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L117" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>Sanmenxia</t>
+        </is>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr"/>
@@ -2275,6 +3433,16 @@
       <c r="K118" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L118" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>Shaan</t>
+        </is>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr"/>
@@ -2290,6 +3458,16 @@
       <c r="K119" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L119" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>Shanglin</t>
+        </is>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr"/>
@@ -2305,6 +3483,16 @@
       <c r="K120" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L120" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>Shenchi</t>
+        </is>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr"/>
@@ -2320,6 +3508,16 @@
       <c r="K121" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L121" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>Shuozhou</t>
+        </is>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr"/>
@@ -2335,6 +3533,16 @@
       <c r="K122" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L122" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>Songming</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr"/>
@@ -2350,6 +3558,16 @@
       <c r="K123" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L123" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>Tai'an</t>
+        </is>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr"/>
@@ -2365,6 +3583,16 @@
       <c r="K124" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L124" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>Tangshan</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr"/>
@@ -2380,6 +3608,16 @@
       <c r="K125" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L125" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>Tian'e</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr"/>
@@ -2395,6 +3633,16 @@
       <c r="K126" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L126" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>Tiandong</t>
+        </is>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr"/>
@@ -2410,6 +3658,16 @@
       <c r="K127" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>Tianlin</t>
+        </is>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr"/>
@@ -2425,6 +3683,16 @@
       <c r="K128" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>Sichuan</t>
+        </is>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>Tianquan</t>
+        </is>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr"/>
@@ -2440,6 +3708,16 @@
       <c r="K129" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L129" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>Tianyang</t>
+        </is>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr"/>
@@ -2455,6 +3733,16 @@
       <c r="K130" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L130" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>Tongchuan</t>
+        </is>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr"/>
@@ -2470,6 +3758,16 @@
       <c r="K131" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L131" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>Tongzi</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr"/>
@@ -2485,6 +3783,16 @@
       <c r="K132" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L132" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>Vietnam</t>
+        </is>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr"/>
@@ -2500,6 +3808,16 @@
       <c r="K133" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L133" t="inlineStr">
+        <is>
+          <t>Hainan</t>
+        </is>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>Wenchang</t>
+        </is>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr"/>
@@ -2515,6 +3833,16 @@
       <c r="K134" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L134" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>Weng'an</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr"/>
@@ -2530,6 +3858,16 @@
       <c r="K135" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L135" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>Wenshan</t>
+        </is>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr"/>
@@ -2545,6 +3883,16 @@
       <c r="K136" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L136" t="inlineStr">
+        <is>
+          <t>Hebei</t>
+        </is>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>Wu'an</t>
+        </is>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr"/>
@@ -2560,6 +3908,16 @@
       <c r="K137" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L137" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>Wuchuan</t>
+        </is>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr"/>
@@ -2575,6 +3933,16 @@
       <c r="K138" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L138" t="inlineStr">
+        <is>
+          <t>Chongqing</t>
+        </is>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>Wulong</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
@@ -2590,6 +3958,16 @@
       <c r="K139" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L139" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>Wutai</t>
+        </is>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr"/>
@@ -2605,6 +3983,16 @@
       <c r="K140" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L140" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>Wuxiang</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr"/>
@@ -2620,6 +4008,16 @@
       <c r="K141" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L141" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>Xia</t>
+        </is>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr"/>
@@ -2635,6 +4033,16 @@
       <c r="K142" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L142" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>Xiangyuan</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr"/>
@@ -2650,6 +4058,16 @@
       <c r="K143" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L143" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>Xiaoyi</t>
+        </is>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr"/>
@@ -2665,6 +4083,16 @@
       <c r="K144" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L144" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>Xichou</t>
+        </is>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr"/>
@@ -2680,6 +4108,16 @@
       <c r="K145" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L145" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>Xifeng</t>
+        </is>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr"/>
@@ -2695,6 +4133,16 @@
       <c r="K146" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L146" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>Xin'an</t>
+        </is>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr"/>
@@ -2710,6 +4158,16 @@
       <c r="K147" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L147" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>Xing</t>
+        </is>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr"/>
@@ -2725,6 +4183,16 @@
       <c r="K148" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L148" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>Xingyang</t>
+        </is>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr"/>
@@ -2740,6 +4208,16 @@
       <c r="K149" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L149" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>Xinmi</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr"/>
@@ -2755,6 +4233,16 @@
       <c r="K150" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L150" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>Xishan</t>
+        </is>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr"/>
@@ -2770,6 +4258,16 @@
       <c r="K151" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L151" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>Xiuwen</t>
+        </is>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr"/>
@@ -2785,6 +4283,16 @@
       <c r="K152" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>Xixiang</t>
+        </is>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr"/>
@@ -2800,6 +4308,16 @@
       <c r="K153" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>Xiyang</t>
+        </is>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr"/>
@@ -2815,6 +4333,16 @@
       <c r="K154" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>Yangquan</t>
+        </is>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr"/>
@@ -2830,6 +4358,16 @@
       <c r="K155" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>Yunnan</t>
+        </is>
+      </c>
+      <c r="M155" t="inlineStr">
+        <is>
+          <t>Yanshan</t>
+        </is>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr"/>
@@ -2845,6 +4383,16 @@
       <c r="K156" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M156" t="inlineStr">
+        <is>
+          <t>Yanshi</t>
+        </is>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr"/>
@@ -2860,6 +4408,16 @@
       <c r="K157" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>Hubei</t>
+        </is>
+      </c>
+      <c r="M157" t="inlineStr">
+        <is>
+          <t>Yicheng</t>
+        </is>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr"/>
@@ -2875,6 +4433,16 @@
       <c r="K158" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M158" t="inlineStr">
+        <is>
+          <t>Yichuan</t>
+        </is>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr"/>
@@ -2890,6 +4458,16 @@
       <c r="K159" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M159" t="inlineStr">
+        <is>
+          <t>Yingze</t>
+        </is>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr"/>
@@ -2905,6 +4483,16 @@
       <c r="K160" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M160" t="inlineStr">
+        <is>
+          <t>Yiyang</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr"/>
@@ -2920,6 +4508,16 @@
       <c r="K161" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M161" t="inlineStr">
+        <is>
+          <t>Yizhou</t>
+        </is>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr"/>
@@ -2935,6 +4533,16 @@
       <c r="K162" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>Guangxi</t>
+        </is>
+      </c>
+      <c r="M162" t="inlineStr">
+        <is>
+          <t>Yongning</t>
+        </is>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr"/>
@@ -2950,6 +4558,16 @@
       <c r="K163" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M163" t="inlineStr">
+        <is>
+          <t>Yu</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr"/>
@@ -2965,6 +4583,325 @@
       <c r="K164" t="n">
         <v>2358.459878875999</v>
       </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M164" t="inlineStr">
+        <is>
+          <t>Yuanping</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr"/>
+      <c r="B165" t="inlineStr"/>
+      <c r="C165" t="inlineStr"/>
+      <c r="D165" t="inlineStr"/>
+      <c r="E165" t="inlineStr"/>
+      <c r="F165" t="inlineStr"/>
+      <c r="G165" t="inlineStr"/>
+      <c r="H165" t="inlineStr"/>
+      <c r="I165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>2358.459878875999</v>
+      </c>
+      <c r="L165" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M165" t="inlineStr">
+        <is>
+          <t>Yuanqu</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr"/>
+      <c r="B166" t="inlineStr"/>
+      <c r="C166" t="inlineStr"/>
+      <c r="D166" t="inlineStr"/>
+      <c r="E166" t="inlineStr"/>
+      <c r="F166" t="inlineStr"/>
+      <c r="G166" t="inlineStr"/>
+      <c r="H166" t="inlineStr"/>
+      <c r="I166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>2358.459878875999</v>
+      </c>
+      <c r="L166" t="inlineStr">
+        <is>
+          <t>Henan</t>
+        </is>
+      </c>
+      <c r="M166" t="inlineStr">
+        <is>
+          <t>Yuzhou</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr"/>
+      <c r="B167" t="inlineStr"/>
+      <c r="C167" t="inlineStr"/>
+      <c r="D167" t="inlineStr"/>
+      <c r="E167" t="inlineStr"/>
+      <c r="F167" t="inlineStr"/>
+      <c r="G167" t="inlineStr"/>
+      <c r="H167" t="inlineStr"/>
+      <c r="I167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>2358.459878875999</v>
+      </c>
+      <c r="L167" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="M167" t="inlineStr">
+        <is>
+          <t>Zhangqiu</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr"/>
+      <c r="B168" t="inlineStr"/>
+      <c r="C168" t="inlineStr"/>
+      <c r="D168" t="inlineStr"/>
+      <c r="E168" t="inlineStr"/>
+      <c r="F168" t="inlineStr"/>
+      <c r="G168" t="inlineStr"/>
+      <c r="H168" t="inlineStr"/>
+      <c r="I168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>2358.459878875999</v>
+      </c>
+      <c r="L168" t="inlineStr">
+        <is>
+          <t>Shaanxi</t>
+        </is>
+      </c>
+      <c r="M168" t="inlineStr">
+        <is>
+          <t>Zhenba</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr"/>
+      <c r="B169" t="inlineStr"/>
+      <c r="C169" t="inlineStr"/>
+      <c r="D169" t="inlineStr"/>
+      <c r="E169" t="inlineStr"/>
+      <c r="F169" t="inlineStr"/>
+      <c r="G169" t="inlineStr"/>
+      <c r="H169" t="inlineStr"/>
+      <c r="I169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>2358.459878875999</v>
+      </c>
+      <c r="L169" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M169" t="inlineStr">
+        <is>
+          <t>Zheng'an</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr"/>
+      <c r="B170" t="inlineStr"/>
+      <c r="C170" t="inlineStr"/>
+      <c r="D170" t="inlineStr"/>
+      <c r="E170" t="inlineStr"/>
+      <c r="F170" t="inlineStr"/>
+      <c r="G170" t="inlineStr"/>
+      <c r="H170" t="inlineStr"/>
+      <c r="I170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>2358.459878875999</v>
+      </c>
+      <c r="L170" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M170" t="inlineStr">
+        <is>
+          <t>Zhijin</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr"/>
+      <c r="B171" t="inlineStr"/>
+      <c r="C171" t="inlineStr"/>
+      <c r="D171" t="inlineStr"/>
+      <c r="E171" t="inlineStr"/>
+      <c r="F171" t="inlineStr"/>
+      <c r="G171" t="inlineStr"/>
+      <c r="H171" t="inlineStr"/>
+      <c r="I171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>2358.459878875999</v>
+      </c>
+      <c r="L171" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M171" t="inlineStr">
+        <is>
+          <t>Zhongyang</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr"/>
+      <c r="B172" t="inlineStr"/>
+      <c r="C172" t="inlineStr"/>
+      <c r="D172" t="inlineStr"/>
+      <c r="E172" t="inlineStr"/>
+      <c r="F172" t="inlineStr"/>
+      <c r="G172" t="inlineStr"/>
+      <c r="H172" t="inlineStr"/>
+      <c r="I172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>2358.459878875999</v>
+      </c>
+      <c r="L172" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="M172" t="inlineStr">
+        <is>
+          <t>Zibo</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr"/>
+      <c r="B173" t="inlineStr"/>
+      <c r="C173" t="inlineStr"/>
+      <c r="D173" t="inlineStr"/>
+      <c r="E173" t="inlineStr"/>
+      <c r="F173" t="inlineStr"/>
+      <c r="G173" t="inlineStr"/>
+      <c r="H173" t="inlineStr"/>
+      <c r="I173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>2358.459878875999</v>
+      </c>
+      <c r="L173" t="inlineStr">
+        <is>
+          <t>Shandong</t>
+        </is>
+      </c>
+      <c r="M173" t="inlineStr">
+        <is>
+          <t>Zouwu</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr"/>
+      <c r="B174" t="inlineStr"/>
+      <c r="C174" t="inlineStr"/>
+      <c r="D174" t="inlineStr"/>
+      <c r="E174" t="inlineStr"/>
+      <c r="F174" t="inlineStr"/>
+      <c r="G174" t="inlineStr"/>
+      <c r="H174" t="inlineStr"/>
+      <c r="I174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>2358.459878875999</v>
+      </c>
+      <c r="L174" t="inlineStr">
+        <is>
+          <t>Guizhou</t>
+        </is>
+      </c>
+      <c r="M174" t="inlineStr">
+        <is>
+          <t>Zunyi</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr"/>
+      <c r="B175" t="inlineStr"/>
+      <c r="C175" t="inlineStr"/>
+      <c r="D175" t="inlineStr"/>
+      <c r="E175" t="inlineStr"/>
+      <c r="F175" t="inlineStr"/>
+      <c r="G175" t="inlineStr"/>
+      <c r="H175" t="inlineStr"/>
+      <c r="I175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>2358.459878875999</v>
+      </c>
+      <c r="L175" t="inlineStr">
+        <is>
+          <t>Shanxi</t>
+        </is>
+      </c>
+      <c r="M175" t="inlineStr">
+        <is>
+          <t>Zuoquan</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr"/>
+      <c r="B176" t="inlineStr"/>
+      <c r="C176" t="inlineStr"/>
+      <c r="D176" t="inlineStr"/>
+      <c r="E176" t="inlineStr"/>
+      <c r="F176" t="inlineStr"/>
+      <c r="G176" t="inlineStr"/>
+      <c r="H176" t="inlineStr"/>
+      <c r="I176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>2358.459878875999</v>
+      </c>
+      <c r="L176" t="inlineStr"/>
+      <c r="M176" t="inlineStr"/>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr"/>
+      <c r="B177" t="inlineStr"/>
+      <c r="C177" t="inlineStr"/>
+      <c r="D177" t="inlineStr"/>
+      <c r="E177" t="inlineStr"/>
+      <c r="F177" t="inlineStr"/>
+      <c r="G177" t="inlineStr"/>
+      <c r="H177" t="inlineStr"/>
+      <c r="I177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>2358.459878875999</v>
+      </c>
+      <c r="L177" t="inlineStr"/>
+      <c r="M177" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
